--- a/WebBasedEvaluations/Program documents/Upload_Evaluation_-_EVAL-003.xlsx
+++ b/WebBasedEvaluations/Program documents/Upload_Evaluation_-_EVAL-003.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\Fall-2022-Group-3-Web-Evaluation\WebBasedEvaluations\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\Fall-2022-Group-3-Web-Evaluation\WebBasedEvaluations\Program documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DE5FA5-8934-4A66-9C6C-924AA5D5E8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE1C55A-050B-4FCF-858A-4D76A10DECCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3FAD3DD6-7A1D-42CB-BC54-8CFE443C5D15}"/>
   </bookViews>
@@ -787,6 +787,9 @@
     <t>Departments</t>
   </si>
   <si>
+    <t>Sales</t>
+  </si>
+  <si>
     <t>none</t>
   </si>
   <si>
@@ -800,9 +803,6 @@
   </si>
   <si>
     <t>Floor Crew</t>
-  </si>
-  <si>
-    <t>Sales</t>
   </si>
   <si>
     <t>Upper Management</t>
@@ -4873,7 +4873,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,32 +4893,32 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
